--- a/uk/ons/datadownload (3).xlsx
+++ b/uk/ons/datadownload (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc900-999\dvc998-weeklydeaths\fig5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1010-weeklydeaths\fig5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A891D1-0009-46ED-AC17-E82491D12121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F8A4A-D665-4243-9E73-658AC3D1226D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5521459E-A168-4EC8-B0C2-C5B8F94C5972}"/>
+    <workbookView xWindow="6015" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{5521459E-A168-4EC8-B0C2-C5B8F94C5972}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Notes</t>
   </si>
@@ -185,13 +185,16 @@
     <t>Week 38</t>
   </si>
   <si>
-    <t>Number of excess deaths by place of occurrence, England and Wales, registered between 7 March 2020 to 25 September 2020</t>
-  </si>
-  <si>
     <t>Week 39</t>
   </si>
   <si>
-    <t>Figure 5: Deaths in private homes remained above the five-year average in Week 39</t>
+    <t>Number of excess deaths by place of occurrence, England and Wales, registered between 7 March 2020 to 2 October 2020</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Figure 5: Deaths in private homes remained above the five-year average in Week 40</t>
   </si>
 </sst>
 </file>
@@ -607,9 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23354918-60B7-443C-B26D-0F4458ED5195}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -618,12 +623,12 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,86 +2238,116 @@
       </c>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="5">
+    <row r="37" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="7">
         <v>2998</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="7">
         <v>11</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="7">
         <v>2249</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="7">
         <v>749</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="7">
         <v>3910</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="7">
         <v>161</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="7">
         <v>4326</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="7">
         <v>-416</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="7">
         <v>1931</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="7">
         <v>38</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="7">
         <v>2002</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="7">
         <v>-71</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="7">
         <v>795</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="7">
         <v>5</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="7">
         <v>800</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="7">
         <v>-5</v>
       </c>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+    </row>
+    <row r="38" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3038</v>
+      </c>
+      <c r="C38" s="5">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2313</v>
+      </c>
+      <c r="E38" s="5">
+        <v>725</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4148</v>
+      </c>
+      <c r="G38" s="5">
+        <v>252</v>
+      </c>
+      <c r="H38" s="5">
+        <v>4381</v>
+      </c>
+      <c r="I38" s="5">
+        <v>-233</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1993</v>
+      </c>
+      <c r="K38" s="5">
+        <v>46</v>
+      </c>
+      <c r="L38" s="5">
+        <v>2074</v>
+      </c>
+      <c r="M38" s="5">
+        <v>-81</v>
+      </c>
+      <c r="N38" s="5">
+        <v>766</v>
+      </c>
+      <c r="O38" s="5">
+        <v>3</v>
+      </c>
+      <c r="P38" s="5">
+        <v>788</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>-22</v>
+      </c>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2330,8 +2365,12 @@
       <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2405,6 +2444,25 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B7:E7"/>
@@ -2423,6 +2481,111 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -2430,75 +2593,12 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistical</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5729cdfc-ed55-47a7-934b-6d10a24cc839</TermId>
-        </TermInfo>
-      </Terms>
-    </o5359087ad404c199aee74686ab194d3>
-    <RetentionDate xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
-    <RetentionType xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">Notify</RetentionType>
-    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
-    <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19435</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19435</Url>
-      <Description>D5PZWENCX5VS-1990262282-19435</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2720,117 +2820,83 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistical</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5729cdfc-ed55-47a7-934b-6d10a24cc839</TermId>
+        </TermInfo>
+      </Terms>
+    </o5359087ad404c199aee74686ab194d3>
+    <RetentionDate xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
+    <RetentionType xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">Notify</RetentionType>
+    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
+    <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19503</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19503</Url>
+      <Description>D5PZWENCX5VS-1990262282-19503</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC2A3331-92ED-4199-92BA-9251752C100A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB4ACCF-1EC0-4D81-9BCA-B79C7B7FF526}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2838,42 +2904,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0516056-BF14-4FA6-8F0E-4EDF756EFF0F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{060F3353-710A-46EA-AB3A-DE42DF7D23E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25EE0290-75DF-4B1E-A28B-E5896398E2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AC2962-19C9-45F1-AB7B-2341EFFDF912}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C6E540-52F5-44C2-90E2-B0A201B0A3E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2894,18 +2933,37 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AC2962-19C9-45F1-AB7B-2341EFFDF912}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{060F3353-710A-46EA-AB3A-DE42DF7D23E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25EE0290-75DF-4B1E-A28B-E5896398E2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC2A3331-92ED-4199-92BA-9251752C100A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0516056-BF14-4FA6-8F0E-4EDF756EFF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/uk/ons/datadownload (3).xlsx
+++ b/uk/ons/datadownload (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1010-weeklydeaths\fig5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1024-weeklydeaths\fig5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F8A4A-D665-4243-9E73-658AC3D1226D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691A6136-97EA-44A2-9FC6-7BDF4979D110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{5521459E-A168-4EC8-B0C2-C5B8F94C5972}"/>
+    <workbookView xWindow="-22680" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{5521459E-A168-4EC8-B0C2-C5B8F94C5972}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Notes</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Week 36</t>
+  </si>
+  <si>
+    <t>Week 37</t>
+  </si>
+  <si>
+    <t>Week 38</t>
+  </si>
+  <si>
+    <t>Week 39</t>
+  </si>
+  <si>
+    <t>Week 40</t>
   </si>
   <si>
     <r>
@@ -161,11 +173,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1. Figures include deaths of non-residents.
-2. Based on date a death was registered rather than occurred.
-3. All figures for 2020 are provisional.
-4. The International Classification of Diseases, Tenth Edition (ICD-10) definitions are as follows: coronavirus (COVID-19) (U07.1 and U07.2).
-5. "Other" includes deaths in communal establishments other than hospitals and care homes, in hospices, and that occurred "elsewhere". More information on the place of death definitions used is available in the</t>
+      <t>1. Based on area of usual residence. Geographical boundaries and communal establishments are based on the most up-to-date information available.
+2. Figures include deaths of non-residents.
+3. Based on date a death was registered rather than occurred.
+4. All figures for 2020 are provisional.
+5. The International Classification of Diseases, Tenth Edition (ICD-10) definitions are as follows: coronavirus (COVID-19) (U07.1 and U07.2).
+6. "Other" includes deaths in communal establishments other than hospitals and care homes, in hospices, and that occurred "elsewhere". More information on the place of death definitions used is available in the</t>
     </r>
     <r>
       <rPr>
@@ -179,22 +192,13 @@
     </r>
   </si>
   <si>
-    <t>Week 37</t>
-  </si>
-  <si>
-    <t>Week 38</t>
-  </si>
-  <si>
-    <t>Week 39</t>
-  </si>
-  <si>
-    <t>Number of excess deaths by place of occurrence, England and Wales, registered between 7 March 2020 to 2 October 2020</t>
-  </si>
-  <si>
-    <t>Week 40</t>
-  </si>
-  <si>
-    <t>Figure 5: Deaths in private homes remained above the five-year average in Week 40</t>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Number of excess deaths by place of occurrence, England and Wales, registered between 7 March 2020 to 9 October 2020</t>
+  </si>
+  <si>
+    <t>Figure 5: Deaths in private homes remained above the five-year average in Week 41</t>
   </si>
 </sst>
 </file>
@@ -276,15 +280,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -610,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23354918-60B7-443C-B26D-0F4458ED5195}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,20 +625,20 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>40</v>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -667,30 +669,30 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1169,7 +1171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1650,818 +1652,759 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="2">
         <v>2960</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="2">
         <v>35</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="2">
         <v>2254</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="2">
         <v>706</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="2">
         <v>3363</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="2">
         <v>225</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>4264</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="2">
         <v>-901</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="2">
         <v>1650</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="2">
         <v>95</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="2">
         <v>1933</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="2">
         <v>-283</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="2">
         <v>717</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="2">
         <v>11</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="2">
         <v>800</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="2">
         <v>-83</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="2">
         <v>2978</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="2">
         <v>29</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="2">
         <v>2212</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="2">
         <v>766</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="2">
         <v>3301</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="2">
         <v>167</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="2">
         <v>4163</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="2">
         <v>-862</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="2">
         <v>1785</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="2">
         <v>91</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="2">
         <v>1925</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="2">
         <v>-140</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="2">
         <v>759</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="2">
         <v>8</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="2">
         <v>794</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="2">
         <v>-35</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="2">
         <v>2966</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="2">
         <v>24</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <v>2239</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="2">
         <v>727</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="2">
         <v>3324</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="2">
         <v>114</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="2">
         <v>4130</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="2">
         <v>-806</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="2">
         <v>1841</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="2">
         <v>69</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="2">
         <v>1893</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="2">
         <v>-52</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="2">
         <v>760</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="2">
         <v>10</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="2">
         <v>791</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="2">
         <v>-31</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="2">
         <v>2915</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="2">
         <v>14</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="2">
         <v>2239</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="2">
         <v>676</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="2">
         <v>3500</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="2">
         <v>129</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="2">
         <v>4103</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="2">
         <v>-603</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="2">
         <v>1752</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="2">
         <v>45</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="2">
         <v>1906</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="2">
         <v>-154</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="2">
         <v>779</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="2">
         <v>5</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="2">
         <v>787</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="2">
         <v>-8</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="2">
         <v>2957</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="2">
         <v>13</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="2">
         <v>2255</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="2">
         <v>702</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="2">
         <v>3430</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="2">
         <v>101</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="2">
         <v>4155</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="2">
         <v>-725</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="2">
         <v>1829</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="2">
         <v>35</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="2">
         <v>1912</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="2">
         <v>-83</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="2">
         <v>729</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="2">
         <v>3</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="2">
         <v>779</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="2">
         <v>-50</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="2">
         <v>3010</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="2">
         <v>12</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="2">
         <v>2198</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="2">
         <v>812</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="2">
         <v>3627</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="2">
         <v>82</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="2">
         <v>4167</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="2">
         <v>-540</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="2">
         <v>1971</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="2">
         <v>40</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="2">
         <v>1935</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="2">
         <v>36</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="2">
         <v>784</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="2">
         <v>5</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="2">
         <v>792</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="2">
         <v>-8</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="2">
         <v>3056</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="2">
         <v>13</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="2">
         <v>2231</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="2">
         <v>825</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="2">
         <v>3853</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="2">
         <v>74</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="2">
         <v>4153</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="2">
         <v>-300</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="2">
         <v>1985</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="2">
         <v>43</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="2">
         <v>1986</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="2">
         <v>-1</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="2">
         <v>737</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="2">
         <v>8</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="2">
         <v>788</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="2">
         <v>-51</v>
       </c>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="2">
         <v>2962</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="2">
         <v>9</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="2">
         <v>2022</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="2">
         <v>940</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="2">
         <v>3546</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="2">
         <v>67</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="2">
         <v>3735</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="2">
         <v>-189</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="2">
         <v>1762</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="2">
         <v>23</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="2">
         <v>1757</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="2">
         <v>5</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="2">
         <v>762</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="2">
         <v>2</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="2">
         <v>727</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="2">
         <v>35</v>
       </c>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="2">
         <v>2329</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="2">
         <v>7</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="2">
         <v>2186</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="2">
         <v>143</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="2">
         <v>3176</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="2">
         <v>51</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="2">
         <v>4208</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="2">
         <v>-1032</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="2">
         <v>1562</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="2">
         <v>17</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="2">
         <v>2010</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="2">
         <v>-448</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="2">
         <v>672</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="2">
         <v>3</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="2">
         <v>780</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="2">
         <v>-108</v>
       </c>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3103</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2273</v>
+      </c>
+      <c r="E35" s="2">
+        <v>830</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3896</v>
+      </c>
+      <c r="G35" s="2">
+        <v>64</v>
+      </c>
+      <c r="H35" s="2">
+        <v>4267</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-371</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2029</v>
+      </c>
+      <c r="K35" s="2">
+        <v>27</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1972</v>
+      </c>
+      <c r="M35" s="2">
+        <v>57</v>
+      </c>
+      <c r="N35" s="2">
+        <v>783</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>802</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="7">
-        <v>3103</v>
-      </c>
-      <c r="C35" s="7">
-        <v>7</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2273</v>
-      </c>
-      <c r="E35" s="7">
-        <v>830</v>
-      </c>
-      <c r="F35" s="7">
-        <v>3896</v>
-      </c>
-      <c r="G35" s="7">
-        <v>64</v>
-      </c>
-      <c r="H35" s="7">
-        <v>4267</v>
-      </c>
-      <c r="I35" s="7">
-        <v>-371</v>
-      </c>
-      <c r="J35" s="7">
-        <v>2029</v>
-      </c>
-      <c r="K35" s="7">
-        <v>27</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1972</v>
-      </c>
-      <c r="M35" s="7">
-        <v>57</v>
-      </c>
-      <c r="N35" s="7">
-        <v>783</v>
-      </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="7">
-        <v>802</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>-19</v>
-      </c>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="2">
+        <v>2962</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2251</v>
+      </c>
+      <c r="E36" s="2">
+        <v>711</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3875</v>
+      </c>
+      <c r="G36" s="2">
+        <v>98</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4240</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-365</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1919</v>
+      </c>
+      <c r="K36" s="2">
+        <v>31</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1987</v>
+      </c>
+      <c r="M36" s="2">
+        <v>-68</v>
+      </c>
+      <c r="N36" s="2">
+        <v>767</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2</v>
+      </c>
+      <c r="P36" s="2">
+        <v>785</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="7">
-        <v>2962</v>
-      </c>
-      <c r="C36" s="7">
-        <v>8</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2251</v>
-      </c>
-      <c r="E36" s="7">
-        <v>711</v>
-      </c>
-      <c r="F36" s="7">
-        <v>3875</v>
-      </c>
-      <c r="G36" s="7">
-        <v>98</v>
-      </c>
-      <c r="H36" s="7">
-        <v>4240</v>
-      </c>
-      <c r="I36" s="7">
-        <v>-365</v>
-      </c>
-      <c r="J36" s="7">
-        <v>1919</v>
-      </c>
-      <c r="K36" s="7">
-        <v>31</v>
-      </c>
-      <c r="L36" s="7">
-        <v>1987</v>
-      </c>
-      <c r="M36" s="7">
-        <v>-68</v>
-      </c>
-      <c r="N36" s="7">
-        <v>767</v>
-      </c>
-      <c r="O36" s="7">
-        <v>2</v>
-      </c>
-      <c r="P36" s="7">
-        <v>785</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>-18</v>
-      </c>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="2">
+        <v>2998</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2249</v>
+      </c>
+      <c r="E37" s="2">
+        <v>749</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3910</v>
+      </c>
+      <c r="G37" s="2">
+        <v>161</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4326</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-416</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1931</v>
+      </c>
+      <c r="K37" s="2">
+        <v>38</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2002</v>
+      </c>
+      <c r="M37" s="2">
+        <v>-71</v>
+      </c>
+      <c r="N37" s="2">
+        <v>795</v>
+      </c>
+      <c r="O37" s="2">
+        <v>5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="7">
-        <v>2998</v>
-      </c>
-      <c r="C37" s="7">
-        <v>11</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2249</v>
-      </c>
-      <c r="E37" s="7">
-        <v>749</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3910</v>
-      </c>
-      <c r="G37" s="7">
-        <v>161</v>
-      </c>
-      <c r="H37" s="7">
-        <v>4326</v>
-      </c>
-      <c r="I37" s="7">
-        <v>-416</v>
-      </c>
-      <c r="J37" s="7">
-        <v>1931</v>
-      </c>
-      <c r="K37" s="7">
-        <v>38</v>
-      </c>
-      <c r="L37" s="7">
-        <v>2002</v>
-      </c>
-      <c r="M37" s="7">
-        <v>-71</v>
-      </c>
-      <c r="N37" s="7">
-        <v>795</v>
-      </c>
-      <c r="O37" s="7">
+      <c r="B38" s="2">
+        <v>3038</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2313</v>
+      </c>
+      <c r="E38" s="2">
+        <v>725</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4148</v>
+      </c>
+      <c r="G38" s="2">
+        <v>252</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4381</v>
+      </c>
+      <c r="I38" s="2">
+        <v>-233</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1993</v>
+      </c>
+      <c r="K38" s="2">
+        <v>46</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2074</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-81</v>
+      </c>
+      <c r="N38" s="2">
+        <v>766</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
+        <v>788</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3068</v>
+      </c>
+      <c r="C39" s="5">
+        <v>28</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2363</v>
+      </c>
+      <c r="E39" s="5">
+        <f>B39-D39</f>
+        <v>705</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4093</v>
+      </c>
+      <c r="G39" s="5">
+        <v>342</v>
+      </c>
+      <c r="H39" s="5">
+        <v>4467</v>
+      </c>
+      <c r="I39" s="5">
+        <f>F39-H39</f>
+        <v>-374</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2011</v>
+      </c>
+      <c r="K39" s="5">
+        <v>63</v>
+      </c>
+      <c r="L39" s="5">
+        <v>2186</v>
+      </c>
+      <c r="M39" s="5">
+        <f>J39-L39</f>
+        <v>-175</v>
+      </c>
+      <c r="N39" s="5">
+        <v>782</v>
+      </c>
+      <c r="O39" s="5">
         <v>5</v>
       </c>
-      <c r="P37" s="7">
-        <v>800</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="5">
-        <v>3038</v>
-      </c>
-      <c r="C38" s="5">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5">
-        <v>2313</v>
-      </c>
-      <c r="E38" s="5">
-        <v>725</v>
-      </c>
-      <c r="F38" s="5">
-        <v>4148</v>
-      </c>
-      <c r="G38" s="5">
-        <v>252</v>
-      </c>
-      <c r="H38" s="5">
-        <v>4381</v>
-      </c>
-      <c r="I38" s="5">
-        <v>-233</v>
-      </c>
-      <c r="J38" s="5">
-        <v>1993</v>
-      </c>
-      <c r="K38" s="5">
-        <v>46</v>
-      </c>
-      <c r="L38" s="5">
-        <v>2074</v>
-      </c>
-      <c r="M38" s="5">
-        <v>-81</v>
-      </c>
-      <c r="N38" s="5">
-        <v>766</v>
-      </c>
-      <c r="O38" s="5">
-        <v>3</v>
-      </c>
-      <c r="P38" s="5">
-        <v>788</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>-22</v>
-      </c>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="P39" s="5">
+        <v>796</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>N39-P39</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2472,7 +2415,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.ons.gov.uk/peoplepopulationandcommunity/birthsdeathsandmarriages/deaths/datasets/weeklyprovisionalfiguresondeathsregisteredinenglandandwales" xr:uid="{743CC07C-B338-4B6A-A294-467404AAAA6B}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.ons.gov.uk/peoplepopulationandcommunity/birthsdeathsandmarriages/deaths/datasets/weeklyprovisionalfiguresondeathsregisteredinenglandandwales" xr:uid="{64C9BB8E-3E3A-427F-A589-EDA0950514FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2480,6 +2423,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2584,21 +2536,43 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2820,37 +2794,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2869,10 +2812,10 @@
     </TaxKeywordTaxHTField>
     <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
     <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19503</_dlc_DocId>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19614</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19503</Url>
-      <Description>D5PZWENCX5VS-1990262282-19503</Description>
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19614</Url>
+      <Description>D5PZWENCX5VS-1990262282-19614</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
@@ -2889,17 +2832,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC2A3331-92ED-4199-92BA-9251752C100A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB4ACCF-1EC0-4D81-9BCA-B79C7B7FF526}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB4ACCF-1EC0-4D81-9BCA-B79C7B7FF526}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC2A3331-92ED-4199-92BA-9251752C100A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2913,6 +2856,14 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AC2962-19C9-45F1-AB7B-2341EFFDF912}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C6E540-52F5-44C2-90E2-B0A201B0A3E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2933,27 +2884,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AC2962-19C9-45F1-AB7B-2341EFFDF912}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25EE0290-75DF-4B1E-A28B-E5896398E2BB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
